--- a/Business/FinancialPlan.xlsx
+++ b/Business/FinancialPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael\Documents\Apps\Phoenix\Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C07E29A-F172-4146-9DDB-DC8EAE763C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28035A9-6875-4B7F-B382-B2C822C47D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{990BFE11-CA5B-4A46-A56F-9B3285507C10}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Project Virgo Financial Plan</t>
   </si>
@@ -247,6 +247,27 @@
   </si>
   <si>
     <t>Percent Competion</t>
+  </si>
+  <si>
+    <t>Target Dates</t>
+  </si>
+  <si>
+    <t>Need funding by</t>
+  </si>
+  <si>
+    <t>Game shippable by</t>
+  </si>
+  <si>
+    <t>Game playable by</t>
+  </si>
+  <si>
+    <t>Game released by</t>
+  </si>
+  <si>
+    <t>Trying to get something playable in half time time I have to get funding.</t>
+  </si>
+  <si>
+    <t>Fully 1.5 year estimated timeline</t>
   </si>
 </sst>
 </file>
@@ -422,7 +443,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -465,6 +486,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -781,15 +803,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E837B8-03A2-4787-92C0-8A69DADFB706}">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" customWidth="1"/>
@@ -2725,13 +2747,14 @@
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="26">
         <f t="shared" si="11"/>
-        <v>0.44748858447488582</v>
+        <v>0.44871794871795079</v>
       </c>
       <c r="B95" t="s">
         <v>58</v>
       </c>
       <c r="C95" s="5">
-        <v>44746</v>
+        <f>D4</f>
+        <v>44746.673076923078</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2787,6 +2810,66 @@
       </c>
       <c r="C104" s="2">
         <v>45049</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B107" s="27"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" s="2">
+        <f>A4</f>
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="2">
+        <f>D4</f>
+        <v>44746.673076923078</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>75</v>
+      </c>
+      <c r="B111" s="2">
+        <f>C103</f>
+        <v>45048.5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>73</v>
+      </c>
+      <c r="B113" s="2">
+        <f>B109</f>
+        <v>44746.673076923078</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>74</v>
+      </c>
+      <c r="B114" s="2">
+        <f>B108+(B109-B108)*0.5</f>
+        <v>44623.836538461539</v>
+      </c>
+      <c r="C114" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Business/FinancialPlan.xlsx
+++ b/Business/FinancialPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael\Documents\Apps\Phoenix\Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28035A9-6875-4B7F-B382-B2C822C47D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28431F29-33A0-4473-928F-B3910ED32285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{990BFE11-CA5B-4A46-A56F-9B3285507C10}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>Project Virgo Financial Plan</t>
   </si>
@@ -255,19 +255,34 @@
     <t>Need funding by</t>
   </si>
   <si>
-    <t>Game shippable by</t>
-  </si>
-  <si>
-    <t>Game playable by</t>
-  </si>
-  <si>
     <t>Game released by</t>
   </si>
   <si>
-    <t>Trying to get something playable in half time time I have to get funding.</t>
-  </si>
-  <si>
     <t>Fully 1.5 year estimated timeline</t>
+  </si>
+  <si>
+    <t>Community demo build</t>
+  </si>
+  <si>
+    <t>Get people in the game!</t>
+  </si>
+  <si>
+    <t>Demo Playable by</t>
+  </si>
+  <si>
+    <t>Game MVP</t>
+  </si>
+  <si>
+    <t>Enough to make another game</t>
+  </si>
+  <si>
+    <t>Enough to make another game and take a nice vacation</t>
+  </si>
+  <si>
+    <t>Anything past this goes to wildlife / environmental charity</t>
+  </si>
+  <si>
+    <t>This might be more than I know what to do with</t>
   </si>
 </sst>
 </file>
@@ -803,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E837B8-03A2-4787-92C0-8A69DADFB706}">
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,17 +1697,21 @@
         <v>57.00748847926269</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3">
+        <f>SUM(G13:G16)</f>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1710,7 +1729,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>9.99</v>
       </c>
@@ -1729,12 +1748,12 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>26</v>
       </c>
@@ -1759,7 +1778,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>1000</v>
       </c>
@@ -1789,7 +1808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>2000</v>
       </c>
@@ -1819,7 +1838,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>3000</v>
       </c>
@@ -1849,7 +1868,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>4000</v>
       </c>
@@ -1879,7 +1898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>5000</v>
       </c>
@@ -1909,7 +1928,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>6000</v>
       </c>
@@ -1939,7 +1958,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>7000</v>
       </c>
@@ -1969,7 +1988,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>8000</v>
       </c>
@@ -1999,7 +2018,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>9000</v>
       </c>
@@ -2029,7 +2048,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>10000</v>
       </c>
@@ -2058,7 +2077,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>15000</v>
       </c>
@@ -2087,7 +2106,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>20000</v>
       </c>
@@ -2117,8 +2136,11 @@
         <v>400</v>
       </c>
       <c r="I51" s="20"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>25000</v>
       </c>
@@ -2147,7 +2169,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>30000</v>
       </c>
@@ -2177,8 +2199,11 @@
         <v>600</v>
       </c>
       <c r="I53" s="24"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>35000</v>
       </c>
@@ -2207,7 +2232,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>40000</v>
       </c>
@@ -2236,7 +2261,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>45000</v>
       </c>
@@ -2265,36 +2290,41 @@
         <v>900</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
         <v>50000</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="23">
         <f t="shared" si="4"/>
         <v>499500</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="23">
         <f t="shared" si="5"/>
         <v>349650</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="23">
         <f t="shared" si="6"/>
         <v>244754.99999999997</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="23">
         <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="23">
         <f t="shared" si="7"/>
         <v>210355.00000000012</v>
       </c>
-      <c r="H57" s="16">
+      <c r="G57" s="24"/>
+      <c r="H57" s="25">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="24"/>
+      <c r="J57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>60000</v>
       </c>
@@ -2323,36 +2353,41 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="18">
         <v>70000</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="19">
         <f t="shared" si="4"/>
         <v>699300</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="19">
         <f t="shared" si="5"/>
         <v>489509.99999999994</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="19">
         <f t="shared" si="6"/>
         <v>342656.99999999994</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="19">
         <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="19">
         <f t="shared" si="7"/>
         <v>308257.00000000006</v>
       </c>
-      <c r="H59" s="16">
+      <c r="G59" s="20"/>
+      <c r="H59" s="21">
         <f t="shared" si="8"/>
         <v>1400</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="20"/>
+      <c r="J59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>80000</v>
       </c>
@@ -2381,7 +2416,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>90000</v>
       </c>
@@ -2410,7 +2445,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>100000</v>
       </c>
@@ -2439,7 +2474,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>200000</v>
       </c>
@@ -2468,7 +2503,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>300000</v>
       </c>
@@ -2697,9 +2732,20 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="15"/>
+      <c r="A87" s="26">
+        <f t="shared" si="11"/>
+        <v>0.22435897435897539</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87" s="15">
+        <f>B109</f>
+        <v>44623.836538461539</v>
+      </c>
+      <c r="D87" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="26"/>
@@ -2758,7 +2804,17 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
+      <c r="A96" s="26">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>78</v>
+      </c>
+      <c r="C96" s="2">
+        <f>B111</f>
+        <v>44774.75</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="26"/>
@@ -2829,47 +2885,44 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B109" s="2">
+        <f>B108+(B110-B108)*0.5</f>
+        <v>44623.836538461539</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>72</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B110" s="2">
         <f>D4</f>
         <v>44746.673076923078</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B111" s="2">
+        <f>B108+(B115-B108)*0.5</f>
+        <v>44774.75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>73</v>
+      </c>
+      <c r="B115" s="2">
         <f>C103</f>
         <v>45048.5</v>
       </c>
-      <c r="C111" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>73</v>
-      </c>
-      <c r="B113" s="2">
-        <f>B109</f>
-        <v>44746.673076923078</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="C115" t="s">
         <v>74</v>
-      </c>
-      <c r="B114" s="2">
-        <f>B108+(B109-B108)*0.5</f>
-        <v>44623.836538461539</v>
-      </c>
-      <c r="C114" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Business/FinancialPlan.xlsx
+++ b/Business/FinancialPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael\Documents\Apps\Phoenix\Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28431F29-33A0-4473-928F-B3910ED32285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89C8855-5373-4F56-BA16-8696CB0086E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{990BFE11-CA5B-4A46-A56F-9B3285507C10}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>Project Virgo Financial Plan</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Additional Funding Required</t>
   </si>
   <si>
-    <t>Sample Earnings</t>
-  </si>
-  <si>
     <t>Price Per Unit</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Hours Contract /week</t>
   </si>
   <si>
-    <t>Random</t>
-  </si>
-  <si>
     <t>Estimated Positive Steam Reviews</t>
   </si>
   <si>
@@ -273,16 +267,31 @@
     <t>Game MVP</t>
   </si>
   <si>
-    <t>Enough to make another game</t>
-  </si>
-  <si>
-    <t>Enough to make another game and take a nice vacation</t>
-  </si>
-  <si>
-    <t>Anything past this goes to wildlife / environmental charity</t>
-  </si>
-  <si>
     <t>This might be more than I know what to do with</t>
+  </si>
+  <si>
+    <t>Unity Plus Threshold</t>
+  </si>
+  <si>
+    <t>Unity Pro Threshold</t>
+  </si>
+  <si>
+    <t>Base Revenue</t>
+  </si>
+  <si>
+    <t>Sample Earnings over one year period</t>
+  </si>
+  <si>
+    <t>Engine Fee</t>
+  </si>
+  <si>
+    <t>IF paid back in full</t>
+  </si>
+  <si>
+    <t>Living the life</t>
+  </si>
+  <si>
+    <t>Charity goal</t>
   </si>
 </sst>
 </file>
@@ -373,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -452,13 +461,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -502,6 +537,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -818,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E837B8-03A2-4787-92C0-8A69DADFB706}">
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +869,7 @@
     <col min="4" max="4" width="35.42578125" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.5703125" customWidth="1"/>
@@ -845,7 +882,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -865,17 +902,17 @@
         <v>19</v>
       </c>
       <c r="F3" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>31</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>32</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -898,10 +935,10 @@
         <v>45048.5</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="36">
         <f>((E4-D4)/B32)*C4</f>
@@ -917,7 +954,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -937,7 +974,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>3</v>
@@ -1196,7 +1233,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1699,35 +1736,42 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J33" s="3">
         <f>SUM(G13:G16)</f>
         <v>6600</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="42"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
@@ -1746,37 +1790,42 @@
       <c r="E37" s="17">
         <v>0.3</v>
       </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G38" t="s">
-        <v>38</v>
+      <c r="F37" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G37" s="12">
+        <v>200000</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="C39" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="D39" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="28" t="s">
+      <c r="F39" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I39" s="1"/>
+      <c r="I39" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
@@ -1795,15 +1844,22 @@
         <v>4895.0999999999995</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" ref="E40:E66" si="3">IF(IF(C40&lt;$C$37,C40,$C$37+$D$37*(C40-$C$37))&lt;$C$37*2,IF(C40&lt;$C$37,C40,$C$37+$D$37*(C40-$C$37)),$C$37*2)</f>
-        <v>6993</v>
+        <f>IF(IF(D40&lt;$C$37,D40,$C$37+$D$37*(D40-$C$37))&lt;$C$37*2,IF(D40&lt;$C$37,D40,$C$37+$D$37*(D40-$C$37)),$C$37*2)</f>
+        <v>4895.0999999999995</v>
       </c>
       <c r="F40" s="3">
         <f>D40-E40</f>
-        <v>-2097.9000000000005</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="16">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <f>IF(F40&gt;$G$37,1800,IF(F40&gt;$F$37,400,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <f>F40-G40</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="16">
         <f>A40/50</f>
         <v>20</v>
       </c>
@@ -1813,28 +1869,35 @@
         <v>2000</v>
       </c>
       <c r="B41" s="3">
-        <f t="shared" ref="B41:B63" si="4">A41*$A$37</f>
+        <f t="shared" ref="B41:B63" si="3">A41*$A$37</f>
         <v>19980</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" ref="C41:C63" si="5">B41*(1-$B$37)</f>
+        <f t="shared" ref="C41:C63" si="4">B41*(1-$B$37)</f>
         <v>13986</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" ref="D41:D66" si="6">C41*(1-$E$37)</f>
+        <f t="shared" ref="D41:D66" si="5">C41*(1-$E$37)</f>
         <v>9790.1999999999989</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="3"/>
-        <v>13986</v>
+        <f t="shared" ref="E41:E66" si="6">IF(IF(D41&lt;$C$37,D41,$C$37+$D$37*(D41-$C$37))&lt;$C$37*2,IF(D41&lt;$C$37,D41,$C$37+$D$37*(D41-$C$37)),$C$37*2)</f>
+        <v>9790.1999999999989</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" ref="F41:F66" si="7">D41-E41</f>
-        <v>-4195.8000000000011</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="16">
-        <f t="shared" ref="H41:H66" si="8">A41/50</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" ref="G41:G66" si="8">IF(F41&gt;$G$37,1800,IF(F41&gt;$F$37,400,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" ref="H41:H66" si="9">F41-G41</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="16">
+        <f t="shared" ref="I41:I66" si="10">A41/50</f>
         <v>40</v>
       </c>
     </row>
@@ -1843,28 +1906,35 @@
         <v>3000</v>
       </c>
       <c r="B42" s="3">
+        <f t="shared" si="3"/>
+        <v>29970</v>
+      </c>
+      <c r="C42" s="3">
         <f t="shared" si="4"/>
-        <v>29970</v>
-      </c>
-      <c r="C42" s="3">
+        <v>20979</v>
+      </c>
+      <c r="D42" s="3">
         <f t="shared" si="5"/>
-        <v>20979</v>
-      </c>
-      <c r="D42" s="3">
+        <v>14685.3</v>
+      </c>
+      <c r="E42" s="3">
         <f t="shared" si="6"/>
         <v>14685.3</v>
       </c>
-      <c r="E42" s="3">
-        <f t="shared" si="3"/>
-        <v>18144.749999999949</v>
-      </c>
       <c r="F42" s="3">
         <f t="shared" si="7"/>
-        <v>-3459.4499999999498</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="16">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="16">
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
     </row>
@@ -1873,28 +1943,35 @@
         <v>4000</v>
       </c>
       <c r="B43" s="3">
+        <f t="shared" si="3"/>
+        <v>39960</v>
+      </c>
+      <c r="C43" s="3">
         <f t="shared" si="4"/>
-        <v>39960</v>
-      </c>
-      <c r="C43" s="3">
+        <v>27972</v>
+      </c>
+      <c r="D43" s="3">
         <f t="shared" si="5"/>
-        <v>27972</v>
-      </c>
-      <c r="D43" s="3">
+        <v>19580.399999999998</v>
+      </c>
+      <c r="E43" s="3">
         <f t="shared" si="6"/>
-        <v>19580.399999999998</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="3"/>
-        <v>19892.999999999949</v>
+        <v>17795.099999999951</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="7"/>
-        <v>-312.59999999995125</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="16">
+        <v>1785.3000000000466</v>
+      </c>
+      <c r="G43" s="3">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="9"/>
+        <v>1785.3000000000466</v>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
     </row>
@@ -1903,28 +1980,35 @@
         <v>5000</v>
       </c>
       <c r="B44" s="3">
+        <f t="shared" si="3"/>
+        <v>49950</v>
+      </c>
+      <c r="C44" s="3">
         <f t="shared" si="4"/>
-        <v>49950</v>
-      </c>
-      <c r="C44" s="3">
+        <v>34965</v>
+      </c>
+      <c r="D44" s="3">
         <f t="shared" si="5"/>
-        <v>34965</v>
-      </c>
-      <c r="D44" s="3">
+        <v>24475.5</v>
+      </c>
+      <c r="E44" s="3">
         <f t="shared" si="6"/>
-        <v>24475.5</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="3"/>
-        <v>21641.249999999949</v>
+        <v>19018.874999999949</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="7"/>
-        <v>2834.2500000000509</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="16">
+        <v>5456.6250000000509</v>
+      </c>
+      <c r="G44" s="3">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="9"/>
+        <v>5456.6250000000509</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
     </row>
@@ -1933,28 +2017,35 @@
         <v>6000</v>
       </c>
       <c r="B45" s="3">
+        <f t="shared" si="3"/>
+        <v>59940</v>
+      </c>
+      <c r="C45" s="3">
         <f t="shared" si="4"/>
-        <v>59940</v>
-      </c>
-      <c r="C45" s="3">
+        <v>41958</v>
+      </c>
+      <c r="D45" s="3">
         <f t="shared" si="5"/>
-        <v>41958</v>
-      </c>
-      <c r="D45" s="3">
+        <v>29370.6</v>
+      </c>
+      <c r="E45" s="3">
         <f t="shared" si="6"/>
-        <v>29370.6</v>
-      </c>
-      <c r="E45" s="3">
-        <f t="shared" si="3"/>
-        <v>23389.499999999949</v>
+        <v>20242.649999999951</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="7"/>
-        <v>5981.1000000000495</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="16">
+        <v>9127.950000000048</v>
+      </c>
+      <c r="G45" s="3">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="9"/>
+        <v>9127.950000000048</v>
+      </c>
+      <c r="I45" s="16">
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
     </row>
@@ -1963,28 +2054,35 @@
         <v>7000</v>
       </c>
       <c r="B46" s="3">
+        <f t="shared" si="3"/>
+        <v>69930</v>
+      </c>
+      <c r="C46" s="3">
         <f t="shared" si="4"/>
-        <v>69930</v>
-      </c>
-      <c r="C46" s="3">
+        <v>48951</v>
+      </c>
+      <c r="D46" s="3">
         <f t="shared" si="5"/>
-        <v>48951</v>
-      </c>
-      <c r="D46" s="3">
+        <v>34265.699999999997</v>
+      </c>
+      <c r="E46" s="3">
         <f t="shared" si="6"/>
-        <v>34265.699999999997</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="3"/>
-        <v>25137.749999999949</v>
+        <v>21466.424999999952</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="7"/>
-        <v>9127.950000000048</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="16">
+        <v>12799.275000000045</v>
+      </c>
+      <c r="G46" s="3">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="9"/>
+        <v>12799.275000000045</v>
+      </c>
+      <c r="I46" s="16">
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
     </row>
@@ -1993,28 +2091,35 @@
         <v>8000</v>
       </c>
       <c r="B47" s="3">
+        <f t="shared" si="3"/>
+        <v>79920</v>
+      </c>
+      <c r="C47" s="3">
         <f t="shared" si="4"/>
-        <v>79920</v>
-      </c>
-      <c r="C47" s="3">
+        <v>55944</v>
+      </c>
+      <c r="D47" s="3">
         <f t="shared" si="5"/>
-        <v>55944</v>
-      </c>
-      <c r="D47" s="3">
+        <v>39160.799999999996</v>
+      </c>
+      <c r="E47" s="3">
         <f t="shared" si="6"/>
-        <v>39160.799999999996</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" si="3"/>
-        <v>26885.999999999949</v>
+        <v>22690.19999999995</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="7"/>
-        <v>12274.800000000047</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="16">
+        <v>16470.600000000046</v>
+      </c>
+      <c r="G47" s="3">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="9"/>
+        <v>16470.600000000046</v>
+      </c>
+      <c r="I47" s="16">
+        <f t="shared" si="10"/>
         <v>160</v>
       </c>
     </row>
@@ -2023,594 +2128,741 @@
         <v>9000</v>
       </c>
       <c r="B48" s="3">
+        <f t="shared" si="3"/>
+        <v>89910</v>
+      </c>
+      <c r="C48" s="3">
         <f t="shared" si="4"/>
-        <v>89910</v>
-      </c>
-      <c r="C48" s="3">
+        <v>62936.999999999993</v>
+      </c>
+      <c r="D48" s="3">
         <f t="shared" si="5"/>
-        <v>62936.999999999993</v>
-      </c>
-      <c r="D48" s="3">
+        <v>44055.899999999994</v>
+      </c>
+      <c r="E48" s="3">
         <f t="shared" si="6"/>
-        <v>44055.899999999994</v>
-      </c>
-      <c r="E48" s="3">
-        <f t="shared" si="3"/>
-        <v>28634.249999999949</v>
+        <v>23913.974999999948</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="7"/>
-        <v>15421.650000000045</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="16">
+        <v>20141.925000000047</v>
+      </c>
+      <c r="G48" s="3">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="9"/>
+        <v>20141.925000000047</v>
+      </c>
+      <c r="I48" s="16">
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>10000</v>
       </c>
       <c r="B49" s="3">
+        <f t="shared" si="3"/>
+        <v>99900</v>
+      </c>
+      <c r="C49" s="3">
         <f t="shared" si="4"/>
-        <v>99900</v>
-      </c>
-      <c r="C49" s="3">
+        <v>69930</v>
+      </c>
+      <c r="D49" s="3">
         <f t="shared" si="5"/>
-        <v>69930</v>
-      </c>
-      <c r="D49" s="3">
+        <v>48951</v>
+      </c>
+      <c r="E49" s="3">
         <f t="shared" si="6"/>
-        <v>48951</v>
-      </c>
-      <c r="E49" s="3">
-        <f t="shared" si="3"/>
-        <v>30382.499999999949</v>
+        <v>25137.749999999949</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="7"/>
-        <v>18568.500000000051</v>
-      </c>
-      <c r="H49" s="16">
+        <v>23813.250000000051</v>
+      </c>
+      <c r="G49" s="3">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="9"/>
+        <v>23813.250000000051</v>
+      </c>
+      <c r="I49" s="16">
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>15000</v>
       </c>
       <c r="B50" s="3">
+        <f t="shared" si="3"/>
+        <v>149850</v>
+      </c>
+      <c r="C50" s="3">
         <f t="shared" si="4"/>
-        <v>149850</v>
-      </c>
-      <c r="C50" s="3">
+        <v>104895</v>
+      </c>
+      <c r="D50" s="3">
         <f t="shared" si="5"/>
-        <v>104895</v>
-      </c>
-      <c r="D50" s="3">
+        <v>73426.5</v>
+      </c>
+      <c r="E50" s="3">
         <f t="shared" si="6"/>
-        <v>73426.5</v>
-      </c>
-      <c r="E50" s="3">
-        <f t="shared" si="3"/>
-        <v>34399.999999999869</v>
+        <v>31256.624999999949</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="7"/>
-        <v>39026.500000000131</v>
-      </c>
-      <c r="H50" s="16">
+        <v>42169.875000000051</v>
+      </c>
+      <c r="G50" s="3">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="9"/>
+        <v>42169.875000000051</v>
+      </c>
+      <c r="I50" s="16">
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>20000</v>
       </c>
       <c r="B51" s="19">
+        <f t="shared" si="3"/>
+        <v>199800</v>
+      </c>
+      <c r="C51" s="19">
         <f t="shared" si="4"/>
-        <v>199800</v>
-      </c>
-      <c r="C51" s="19">
+        <v>139860</v>
+      </c>
+      <c r="D51" s="19">
         <f t="shared" si="5"/>
-        <v>139860</v>
-      </c>
-      <c r="D51" s="19">
+        <v>97902</v>
+      </c>
+      <c r="E51" s="19">
         <f t="shared" si="6"/>
-        <v>97902</v>
-      </c>
-      <c r="E51" s="19">
-        <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
       <c r="F51" s="19">
         <f t="shared" si="7"/>
         <v>63502.000000000131</v>
       </c>
-      <c r="G51" s="20"/>
-      <c r="H51" s="21">
+      <c r="G51" s="19">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="19">
+        <f t="shared" si="9"/>
+        <v>63502.000000000131</v>
+      </c>
+      <c r="I51" s="21">
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
-      <c r="I51" s="20"/>
-      <c r="J51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J51" s="20"/>
+      <c r="K51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>25000</v>
       </c>
       <c r="B52" s="3">
+        <f t="shared" si="3"/>
+        <v>249750</v>
+      </c>
+      <c r="C52" s="3">
         <f t="shared" si="4"/>
-        <v>249750</v>
-      </c>
-      <c r="C52" s="3">
+        <v>174825</v>
+      </c>
+      <c r="D52" s="3">
         <f t="shared" si="5"/>
-        <v>174825</v>
-      </c>
-      <c r="D52" s="3">
+        <v>122377.49999999999</v>
+      </c>
+      <c r="E52" s="3">
         <f t="shared" si="6"/>
-        <v>122377.49999999999</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="7"/>
         <v>87977.500000000116</v>
       </c>
-      <c r="H52" s="16">
+      <c r="G52" s="3">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="9"/>
+        <v>87977.500000000116</v>
+      </c>
+      <c r="I52" s="16">
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>30000</v>
       </c>
       <c r="B53" s="23">
+        <f t="shared" si="3"/>
+        <v>299700</v>
+      </c>
+      <c r="C53" s="23">
         <f t="shared" si="4"/>
-        <v>299700</v>
-      </c>
-      <c r="C53" s="23">
+        <v>209790</v>
+      </c>
+      <c r="D53" s="23">
         <f t="shared" si="5"/>
-        <v>209790</v>
-      </c>
-      <c r="D53" s="23">
+        <v>146853</v>
+      </c>
+      <c r="E53" s="23">
         <f t="shared" si="6"/>
-        <v>146853</v>
-      </c>
-      <c r="E53" s="23">
-        <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
       <c r="F53" s="23">
         <f t="shared" si="7"/>
         <v>112453.00000000013</v>
       </c>
-      <c r="G53" s="24"/>
-      <c r="H53" s="25">
+      <c r="G53" s="23">
         <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="H53" s="23">
+        <f t="shared" si="9"/>
+        <v>112053.00000000013</v>
+      </c>
+      <c r="I53" s="25">
+        <f t="shared" si="10"/>
         <v>600</v>
       </c>
-      <c r="I53" s="24"/>
-      <c r="J53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J53" s="24"/>
+      <c r="K53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>35000</v>
       </c>
       <c r="B54" s="3">
+        <f t="shared" si="3"/>
+        <v>349650</v>
+      </c>
+      <c r="C54" s="3">
         <f t="shared" si="4"/>
-        <v>349650</v>
-      </c>
-      <c r="C54" s="3">
+        <v>244754.99999999997</v>
+      </c>
+      <c r="D54" s="3">
         <f t="shared" si="5"/>
-        <v>244754.99999999997</v>
-      </c>
-      <c r="D54" s="3">
+        <v>171328.49999999997</v>
+      </c>
+      <c r="E54" s="3">
         <f t="shared" si="6"/>
-        <v>171328.49999999997</v>
-      </c>
-      <c r="E54" s="3">
-        <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="7"/>
         <v>136928.50000000012</v>
       </c>
-      <c r="H54" s="16">
+      <c r="G54" s="3">
         <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="9"/>
+        <v>136528.50000000012</v>
+      </c>
+      <c r="I54" s="16">
+        <f t="shared" si="10"/>
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>40000</v>
       </c>
       <c r="B55" s="3">
+        <f t="shared" si="3"/>
+        <v>399600</v>
+      </c>
+      <c r="C55" s="3">
         <f t="shared" si="4"/>
-        <v>399600</v>
-      </c>
-      <c r="C55" s="3">
+        <v>279720</v>
+      </c>
+      <c r="D55" s="3">
         <f t="shared" si="5"/>
-        <v>279720</v>
-      </c>
-      <c r="D55" s="3">
+        <v>195804</v>
+      </c>
+      <c r="E55" s="3">
         <f t="shared" si="6"/>
-        <v>195804</v>
-      </c>
-      <c r="E55" s="3">
-        <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="7"/>
         <v>161404.00000000012</v>
       </c>
-      <c r="H55" s="16">
+      <c r="G55" s="3">
         <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="9"/>
+        <v>161004.00000000012</v>
+      </c>
+      <c r="I55" s="16">
+        <f t="shared" si="10"/>
         <v>800</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>45000</v>
       </c>
       <c r="B56" s="3">
+        <f t="shared" si="3"/>
+        <v>449550</v>
+      </c>
+      <c r="C56" s="3">
         <f t="shared" si="4"/>
-        <v>449550</v>
-      </c>
-      <c r="C56" s="3">
+        <v>314685</v>
+      </c>
+      <c r="D56" s="3">
         <f t="shared" si="5"/>
-        <v>314685</v>
-      </c>
-      <c r="D56" s="3">
+        <v>220279.5</v>
+      </c>
+      <c r="E56" s="3">
         <f t="shared" si="6"/>
-        <v>220279.5</v>
-      </c>
-      <c r="E56" s="3">
-        <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="7"/>
         <v>185879.50000000012</v>
       </c>
-      <c r="H56" s="16">
+      <c r="G56" s="3">
         <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="9"/>
+        <v>185479.50000000012</v>
+      </c>
+      <c r="I56" s="16">
+        <f t="shared" si="10"/>
         <v>900</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>50000</v>
       </c>
       <c r="B57" s="23">
+        <f t="shared" si="3"/>
+        <v>499500</v>
+      </c>
+      <c r="C57" s="23">
         <f t="shared" si="4"/>
-        <v>499500</v>
-      </c>
-      <c r="C57" s="23">
+        <v>349650</v>
+      </c>
+      <c r="D57" s="23">
         <f t="shared" si="5"/>
-        <v>349650</v>
-      </c>
-      <c r="D57" s="23">
+        <v>244754.99999999997</v>
+      </c>
+      <c r="E57" s="23">
         <f t="shared" si="6"/>
-        <v>244754.99999999997</v>
-      </c>
-      <c r="E57" s="23">
-        <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
       <c r="F57" s="23">
         <f t="shared" si="7"/>
         <v>210355.00000000012</v>
       </c>
-      <c r="G57" s="24"/>
-      <c r="H57" s="25">
+      <c r="G57" s="23">
         <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="H57" s="23">
+        <f t="shared" si="9"/>
+        <v>208555.00000000012</v>
+      </c>
+      <c r="I57" s="25">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
-      <c r="I57" s="24"/>
-      <c r="J57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J57" s="24"/>
+      <c r="K57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>60000</v>
       </c>
       <c r="B58" s="3">
+        <f t="shared" si="3"/>
+        <v>599400</v>
+      </c>
+      <c r="C58" s="3">
         <f t="shared" si="4"/>
-        <v>599400</v>
-      </c>
-      <c r="C58" s="3">
+        <v>419580</v>
+      </c>
+      <c r="D58" s="3">
         <f t="shared" si="5"/>
-        <v>419580</v>
-      </c>
-      <c r="D58" s="3">
+        <v>293706</v>
+      </c>
+      <c r="E58" s="3">
         <f t="shared" si="6"/>
-        <v>293706</v>
-      </c>
-      <c r="E58" s="3">
-        <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" si="7"/>
         <v>259306.00000000012</v>
       </c>
-      <c r="H58" s="16">
+      <c r="G58" s="3">
         <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="9"/>
+        <v>257506.00000000012</v>
+      </c>
+      <c r="I58" s="16">
+        <f t="shared" si="10"/>
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <v>70000</v>
       </c>
       <c r="B59" s="19">
+        <f t="shared" si="3"/>
+        <v>699300</v>
+      </c>
+      <c r="C59" s="19">
         <f t="shared" si="4"/>
-        <v>699300</v>
-      </c>
-      <c r="C59" s="19">
+        <v>489509.99999999994</v>
+      </c>
+      <c r="D59" s="19">
         <f t="shared" si="5"/>
-        <v>489509.99999999994</v>
-      </c>
-      <c r="D59" s="19">
+        <v>342656.99999999994</v>
+      </c>
+      <c r="E59" s="19">
         <f t="shared" si="6"/>
-        <v>342656.99999999994</v>
-      </c>
-      <c r="E59" s="19">
-        <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
       <c r="F59" s="19">
         <f t="shared" si="7"/>
         <v>308257.00000000006</v>
       </c>
-      <c r="G59" s="20"/>
-      <c r="H59" s="21">
+      <c r="G59" s="19">
         <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="H59" s="19">
+        <f t="shared" si="9"/>
+        <v>306457.00000000006</v>
+      </c>
+      <c r="I59" s="21">
+        <f t="shared" si="10"/>
         <v>1400</v>
       </c>
-      <c r="I59" s="20"/>
-      <c r="J59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J59" s="20"/>
+      <c r="K59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>80000</v>
       </c>
       <c r="B60" s="3">
+        <f t="shared" si="3"/>
+        <v>799200</v>
+      </c>
+      <c r="C60" s="3">
         <f t="shared" si="4"/>
-        <v>799200</v>
-      </c>
-      <c r="C60" s="3">
+        <v>559440</v>
+      </c>
+      <c r="D60" s="3">
         <f t="shared" si="5"/>
-        <v>559440</v>
-      </c>
-      <c r="D60" s="3">
+        <v>391608</v>
+      </c>
+      <c r="E60" s="3">
         <f t="shared" si="6"/>
-        <v>391608</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" si="7"/>
         <v>357208.00000000012</v>
       </c>
-      <c r="H60" s="16">
+      <c r="G60" s="3">
         <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="9"/>
+        <v>355408.00000000012</v>
+      </c>
+      <c r="I60" s="16">
+        <f t="shared" si="10"/>
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>90000</v>
       </c>
       <c r="B61" s="3">
+        <f t="shared" si="3"/>
+        <v>899100</v>
+      </c>
+      <c r="C61" s="3">
         <f t="shared" si="4"/>
-        <v>899100</v>
-      </c>
-      <c r="C61" s="3">
+        <v>629370</v>
+      </c>
+      <c r="D61" s="3">
         <f t="shared" si="5"/>
-        <v>629370</v>
-      </c>
-      <c r="D61" s="3">
+        <v>440559</v>
+      </c>
+      <c r="E61" s="3">
         <f t="shared" si="6"/>
-        <v>440559</v>
-      </c>
-      <c r="E61" s="3">
-        <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" si="7"/>
         <v>406159.00000000012</v>
       </c>
-      <c r="H61" s="16">
+      <c r="G61" s="3">
         <f t="shared" si="8"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H61" s="3">
+        <f t="shared" si="9"/>
+        <v>404359.00000000012</v>
+      </c>
+      <c r="I61" s="16">
+        <f t="shared" si="10"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>100000</v>
       </c>
       <c r="B62" s="3">
+        <f t="shared" si="3"/>
+        <v>999000</v>
+      </c>
+      <c r="C62" s="3">
         <f t="shared" si="4"/>
-        <v>999000</v>
-      </c>
-      <c r="C62" s="3">
+        <v>699300</v>
+      </c>
+      <c r="D62" s="3">
         <f t="shared" si="5"/>
-        <v>699300</v>
-      </c>
-      <c r="D62" s="3">
+        <v>489509.99999999994</v>
+      </c>
+      <c r="E62" s="3">
         <f t="shared" si="6"/>
-        <v>489509.99999999994</v>
-      </c>
-      <c r="E62" s="3">
-        <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" si="7"/>
         <v>455110.00000000006</v>
       </c>
-      <c r="H62" s="16">
+      <c r="G62" s="3">
         <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="9"/>
+        <v>453310.00000000006</v>
+      </c>
+      <c r="I62" s="16">
+        <f t="shared" si="10"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>200000</v>
       </c>
       <c r="B63" s="3">
+        <f t="shared" si="3"/>
+        <v>1998000</v>
+      </c>
+      <c r="C63" s="3">
         <f t="shared" si="4"/>
-        <v>1998000</v>
-      </c>
-      <c r="C63" s="3">
+        <v>1398600</v>
+      </c>
+      <c r="D63" s="3">
         <f t="shared" si="5"/>
-        <v>1398600</v>
-      </c>
-      <c r="D63" s="3">
+        <v>979019.99999999988</v>
+      </c>
+      <c r="E63" s="3">
         <f t="shared" si="6"/>
-        <v>979019.99999999988</v>
-      </c>
-      <c r="E63" s="3">
-        <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="7"/>
         <v>944620</v>
       </c>
-      <c r="H63" s="16">
+      <c r="G63" s="3">
         <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="9"/>
+        <v>942820</v>
+      </c>
+      <c r="I63" s="16">
+        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>300000</v>
       </c>
       <c r="B64" s="3">
-        <f t="shared" ref="B64:B66" si="9">A64*$A$37</f>
+        <f t="shared" ref="B64:B66" si="11">A64*$A$37</f>
         <v>2997000</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" ref="C64:C66" si="10">B64*(1-$B$37)</f>
+        <f t="shared" ref="C64:C66" si="12">B64*(1-$B$37)</f>
         <v>2097900</v>
       </c>
       <c r="D64" s="3">
+        <f t="shared" si="5"/>
+        <v>1468530</v>
+      </c>
+      <c r="E64" s="3">
         <f t="shared" si="6"/>
-        <v>1468530</v>
-      </c>
-      <c r="E64" s="3">
-        <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
       <c r="F64" s="3">
         <f t="shared" si="7"/>
         <v>1434130.0000000002</v>
       </c>
-      <c r="H64" s="16">
+      <c r="G64" s="3">
         <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="9"/>
+        <v>1432330.0000000002</v>
+      </c>
+      <c r="I64" s="16">
+        <f t="shared" si="10"/>
         <v>6000</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>400000</v>
       </c>
       <c r="B65" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3996000</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2797200</v>
       </c>
       <c r="D65" s="3">
+        <f t="shared" si="5"/>
+        <v>1958039.9999999998</v>
+      </c>
+      <c r="E65" s="3">
         <f t="shared" si="6"/>
-        <v>1958039.9999999998</v>
-      </c>
-      <c r="E65" s="3">
-        <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
       <c r="F65" s="3">
         <f t="shared" si="7"/>
         <v>1923640</v>
       </c>
-      <c r="H65" s="16">
+      <c r="G65" s="3">
         <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="9"/>
+        <v>1921840</v>
+      </c>
+      <c r="I65" s="16">
+        <f t="shared" si="10"/>
         <v>8000</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>500000</v>
       </c>
       <c r="B66" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4995000</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3496500</v>
       </c>
       <c r="D66" s="3">
+        <f t="shared" si="5"/>
+        <v>2447550</v>
+      </c>
+      <c r="E66" s="3">
         <f t="shared" si="6"/>
-        <v>2447550</v>
-      </c>
-      <c r="E66" s="3">
-        <f t="shared" si="3"/>
         <v>34399.999999999869</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" si="7"/>
         <v>2413150</v>
       </c>
-      <c r="H66" s="16">
+      <c r="G66" s="3">
         <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="9"/>
+        <v>2411350</v>
+      </c>
+      <c r="I66" s="16">
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B78" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D78" s="28" t="s">
-        <v>69</v>
-      </c>
       <c r="E78" s="29"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="26">
         <f>MAX(0,(C79-$C$79)/($C$103-$C$79))</f>
         <v>0</v>
@@ -2623,128 +2875,128 @@
         <v>44501</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="26">
-        <f t="shared" ref="A80:A104" si="11">MAX(0,(C80-$C$79)/($C$103-$C$79))</f>
+        <f t="shared" ref="A80:A104" si="13">MAX(0,(C80-$C$79)/($C$103-$C$79))</f>
         <v>2.5570776255707764E-2</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C80" s="14">
         <v>44515</v>
       </c>
       <c r="D80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.3835616438356165E-2</v>
       </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C81" s="14">
         <v>44525</v>
       </c>
       <c r="D81" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.3835616438356165E-2</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C82" s="14">
         <v>44525</v>
       </c>
       <c r="D82" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7.6712328767123292E-2</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C83" s="15">
         <v>44543</v>
       </c>
       <c r="D83" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.9497716894977167E-2</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C84" s="15">
         <v>44550</v>
       </c>
       <c r="D84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.8630136986301367E-2</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C85" s="15">
         <v>44555</v>
       </c>
       <c r="D85" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.12237442922374429</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C86" s="15">
         <v>44568</v>
       </c>
       <c r="D86" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.22435897435897539</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C87" s="15">
         <f>B109</f>
         <v>44623.836538461539</v>
       </c>
       <c r="D87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2779,11 +3031,11 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="B94" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C94" s="10">
         <f>C79+6*B32</f>
@@ -2792,11 +3044,11 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.44871794871795079</v>
       </c>
       <c r="B95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C95" s="5">
         <f>D4</f>
@@ -2805,11 +3057,11 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C96" s="2">
         <f>B111</f>
@@ -2828,28 +3080,28 @@
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="26"/>
       <c r="B100" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
       <c r="B101" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="26"/>
       <c r="B102" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C103" s="8">
         <f>C94+12*B32</f>
@@ -2858,11 +3110,11 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0009132420091325</v>
       </c>
       <c r="B104" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C104" s="2">
         <v>45049</v>
@@ -2870,7 +3122,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B107" s="27"/>
     </row>
@@ -2885,7 +3137,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B109" s="2">
         <f>B108+(B110-B108)*0.5</f>
@@ -2894,7 +3146,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B110" s="2">
         <f>D4</f>
@@ -2903,7 +3155,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B111" s="2">
         <f>B108+(B115-B108)*0.5</f>
@@ -2915,14 +3167,14 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B115" s="2">
         <f>C103</f>
         <v>45048.5</v>
       </c>
       <c r="C115" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2930,6 +3182,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="G8 G9:G31" formulaRange="1"/>
+    <ignoredError sqref="G40 G41:G66" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Business/FinancialPlan.xlsx
+++ b/Business/FinancialPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael\Documents\Apps\Phoenix\Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89C8855-5373-4F56-BA16-8696CB0086E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF27C65-36FC-4DD1-99FC-71BE90527F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{990BFE11-CA5B-4A46-A56F-9B3285507C10}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>Project Virgo Financial Plan</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>Charity goal</t>
+  </si>
+  <si>
+    <t>Went out in public for first time and got public to play test</t>
+  </si>
+  <si>
+    <t>Public testing Demo v0.3</t>
   </si>
 </sst>
 </file>
@@ -857,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E837B8-03A2-4787-92C0-8A69DADFB706}">
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2893,7 +2899,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="26">
         <f t="shared" si="13"/>
         <v>4.3835616438356165E-2</v>
@@ -2908,7 +2914,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="26">
         <f t="shared" si="13"/>
         <v>4.3835616438356165E-2</v>
@@ -2923,7 +2929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="26">
         <f t="shared" si="13"/>
         <v>7.6712328767123292E-2</v>
@@ -2938,7 +2944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="26">
         <f t="shared" si="13"/>
         <v>8.9497716894977167E-2</v>
@@ -2953,7 +2959,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="26">
         <f t="shared" si="13"/>
         <v>9.8630136986301367E-2</v>
@@ -2968,7 +2974,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="26">
         <f t="shared" si="13"/>
         <v>0.12237442922374429</v>
@@ -2983,7 +2989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="26">
         <f t="shared" si="13"/>
         <v>0.22435897435897539</v>
@@ -2999,37 +3005,54 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="15"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="26">
+        <f t="shared" si="13"/>
+        <v>0.26484018264840181</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="15">
+        <v>44646</v>
+      </c>
+      <c r="D88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="26"/>
       <c r="B89" s="7"/>
       <c r="C89" s="15"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G89" s="3">
+        <v>5487.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="26"/>
       <c r="B90" s="7"/>
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="26"/>
       <c r="B91" s="7"/>
       <c r="C91" s="15"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="26"/>
       <c r="B92" s="7"/>
       <c r="C92" s="15"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="26"/>
       <c r="B93" s="7"/>
       <c r="C93" s="15"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G93" s="3">
+        <f>G89-G105</f>
+        <v>3622.1000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="26">
         <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
@@ -3041,8 +3064,11 @@
         <f>C79+6*B32</f>
         <v>44683.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G94" s="3">
+        <v>1733.33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="26">
         <f t="shared" si="13"/>
         <v>0.44871794871795079</v>
@@ -3054,8 +3080,16 @@
         <f>D4</f>
         <v>44746.673076923078</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <f>G93/G94</f>
+        <v>2.0896770955328763</v>
+      </c>
+      <c r="H95">
+        <f>G95*B32</f>
+        <v>63.561011655791653</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="26">
         <f t="shared" si="13"/>
         <v>0.5</v>
@@ -3067,35 +3101,39 @@
         <f>B111</f>
         <v>44774.75</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H96" s="2">
+        <f ca="1">TODAY()+H95</f>
+        <v>44710.561011655795</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="26"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="26"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="26"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="26"/>
       <c r="B100" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
       <c r="B101" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="26"/>
       <c r="B102" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="26">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -3107,8 +3145,11 @@
         <f>C94+12*B32</f>
         <v>45048.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="26">
         <f t="shared" si="13"/>
         <v>1.0009132420091325</v>
@@ -3119,14 +3160,23 @@
       <c r="C104" s="2">
         <v>45049</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G105" s="3">
+        <f>G104+G103</f>
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
         <v>69</v>
       </c>
       <c r="B107" s="27"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -3135,7 +3185,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>75</v>
       </c>
@@ -3144,7 +3194,7 @@
         <v>44623.836538461539</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>70</v>
       </c>
@@ -3153,7 +3203,7 @@
         <v>44746.673076923078</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>76</v>
       </c>
@@ -3162,7 +3212,7 @@
         <v>44774.75</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
